--- a/passenger_flows/weekend/ArrivalVolume-30min/5号线-idx-2.xlsx
+++ b/passenger_flows/weekend/ArrivalVolume-30min/5号线-idx-2.xlsx
@@ -622,109 +622,109 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E2">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="F2">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="G2">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="H2">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="I2">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="J2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="K2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="L2">
-        <v>490</v>
+        <v>333</v>
       </c>
       <c r="M2">
-        <v>328</v>
+        <v>219</v>
       </c>
       <c r="N2">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="O2">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="P2">
-        <v>505</v>
+        <v>346</v>
       </c>
       <c r="Q2">
-        <v>347</v>
+        <v>230</v>
       </c>
       <c r="R2">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="S2">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="T2">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="U2">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="V2">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="W2">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="X2">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Y2">
-        <v>429</v>
+        <v>296</v>
       </c>
       <c r="Z2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AA2">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="AB2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AC2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AD2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AE2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AF2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AG2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AH2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AI2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AJ2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AK2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL2">
         <v>14</v>
@@ -741,109 +741,109 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E3">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="F3">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="G3">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H3">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="I3">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="J3">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="K3">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L3">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="M3">
-        <v>393</v>
+        <v>264</v>
       </c>
       <c r="N3">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="O3">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="P3">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="Q3">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="R3">
-        <v>332</v>
+        <v>224</v>
       </c>
       <c r="S3">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="T3">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="U3">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="V3">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="W3">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="X3">
-        <v>319</v>
+        <v>216</v>
       </c>
       <c r="Y3">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="Z3">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AA3">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AB3">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="AC3">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AD3">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AE3">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AF3">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AG3">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AH3">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AI3">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AJ3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AK3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL3">
         <v>7</v>
@@ -857,112 +857,112 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E4">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F4">
+        <v>354</v>
+      </c>
+      <c r="G4">
+        <v>372</v>
+      </c>
+      <c r="H4">
+        <v>374</v>
+      </c>
+      <c r="I4">
+        <v>351</v>
+      </c>
+      <c r="J4">
+        <v>290</v>
+      </c>
+      <c r="K4">
+        <v>209</v>
+      </c>
+      <c r="L4">
+        <v>194</v>
+      </c>
+      <c r="M4">
+        <v>153</v>
+      </c>
+      <c r="N4">
+        <v>119</v>
+      </c>
+      <c r="O4">
+        <v>117</v>
+      </c>
+      <c r="P4">
+        <v>141</v>
+      </c>
+      <c r="Q4">
+        <v>146</v>
+      </c>
+      <c r="R4">
+        <v>169</v>
+      </c>
+      <c r="S4">
+        <v>161</v>
+      </c>
+      <c r="T4">
+        <v>163</v>
+      </c>
+      <c r="U4">
+        <v>135</v>
+      </c>
+      <c r="V4">
+        <v>133</v>
+      </c>
+      <c r="W4">
+        <v>141</v>
+      </c>
+      <c r="X4">
+        <v>148</v>
+      </c>
+      <c r="Y4">
+        <v>201</v>
+      </c>
+      <c r="Z4">
+        <v>205</v>
+      </c>
+      <c r="AA4">
+        <v>362</v>
+      </c>
+      <c r="AB4">
         <v>361</v>
       </c>
-      <c r="G4">
-        <v>390</v>
-      </c>
-      <c r="H4">
-        <v>390</v>
-      </c>
-      <c r="I4">
-        <v>361</v>
-      </c>
-      <c r="J4">
-        <v>303</v>
-      </c>
-      <c r="K4">
-        <v>215</v>
-      </c>
-      <c r="L4">
-        <v>283</v>
-      </c>
-      <c r="M4">
-        <v>229</v>
-      </c>
-      <c r="N4">
-        <v>176</v>
-      </c>
-      <c r="O4">
-        <v>172</v>
-      </c>
-      <c r="P4">
-        <v>212</v>
-      </c>
-      <c r="Q4">
-        <v>218</v>
-      </c>
-      <c r="R4">
-        <v>246</v>
-      </c>
-      <c r="S4">
-        <v>240</v>
-      </c>
-      <c r="T4">
-        <v>237</v>
-      </c>
-      <c r="U4">
-        <v>203</v>
-      </c>
-      <c r="V4">
-        <v>194</v>
-      </c>
-      <c r="W4">
-        <v>210</v>
-      </c>
-      <c r="X4">
-        <v>217</v>
-      </c>
-      <c r="Y4">
-        <v>292</v>
-      </c>
-      <c r="Z4">
-        <v>215</v>
-      </c>
-      <c r="AA4">
-        <v>374</v>
-      </c>
-      <c r="AB4">
-        <v>374</v>
-      </c>
       <c r="AC4">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AD4">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AE4">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AF4">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AG4">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AH4">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AI4">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AJ4">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL4">
         <v>10</v>
@@ -979,109 +979,109 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E5">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="F5">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="G5">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="H5">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="I5">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="J5">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="K5">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="L5">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="M5">
+        <v>153</v>
+      </c>
+      <c r="N5">
+        <v>199</v>
+      </c>
+      <c r="O5">
+        <v>193</v>
+      </c>
+      <c r="P5">
+        <v>239</v>
+      </c>
+      <c r="Q5">
+        <v>211</v>
+      </c>
+      <c r="R5">
         <v>230</v>
       </c>
-      <c r="N5">
-        <v>292</v>
-      </c>
-      <c r="O5">
-        <v>284</v>
-      </c>
-      <c r="P5">
-        <v>353</v>
-      </c>
-      <c r="Q5">
-        <v>317</v>
-      </c>
-      <c r="R5">
-        <v>337</v>
-      </c>
       <c r="S5">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="T5">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="U5">
-        <v>328</v>
+        <v>222</v>
       </c>
       <c r="V5">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="W5">
-        <v>424</v>
+        <v>278</v>
       </c>
       <c r="X5">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="Y5">
-        <v>539</v>
+        <v>363</v>
       </c>
       <c r="Z5">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AA5">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="AB5">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="AC5">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="AD5">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AE5">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AF5">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AG5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AH5">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AI5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AJ5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL5">
         <v>4</v>
@@ -1101,106 +1101,106 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E6">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F6">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G6">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H6">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="I6">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="J6">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="K6">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L6">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="O6">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="P6">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="Q6">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="R6">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="S6">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="T6">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="U6">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="V6">
+        <v>132</v>
+      </c>
+      <c r="W6">
+        <v>132</v>
+      </c>
+      <c r="X6">
+        <v>140</v>
+      </c>
+      <c r="Y6">
+        <v>187</v>
+      </c>
+      <c r="Z6">
+        <v>202</v>
+      </c>
+      <c r="AA6">
+        <v>353</v>
+      </c>
+      <c r="AB6">
+        <v>352</v>
+      </c>
+      <c r="AC6">
+        <v>204</v>
+      </c>
+      <c r="AD6">
+        <v>350</v>
+      </c>
+      <c r="AE6">
+        <v>263</v>
+      </c>
+      <c r="AF6">
+        <v>302</v>
+      </c>
+      <c r="AG6">
+        <v>206</v>
+      </c>
+      <c r="AH6">
         <v>191</v>
       </c>
-      <c r="W6">
-        <v>203</v>
-      </c>
-      <c r="X6">
-        <v>207</v>
-      </c>
-      <c r="Y6">
-        <v>280</v>
-      </c>
-      <c r="Z6">
-        <v>212</v>
-      </c>
-      <c r="AA6">
-        <v>369</v>
-      </c>
-      <c r="AB6">
-        <v>369</v>
-      </c>
-      <c r="AC6">
-        <v>212</v>
-      </c>
-      <c r="AD6">
-        <v>365</v>
-      </c>
-      <c r="AE6">
-        <v>271</v>
-      </c>
-      <c r="AF6">
-        <v>316</v>
-      </c>
-      <c r="AG6">
-        <v>212</v>
-      </c>
-      <c r="AH6">
-        <v>203</v>
-      </c>
       <c r="AI6">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AJ6">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AK6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL6">
         <v>9</v>
@@ -1214,115 +1214,115 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="E7">
-        <v>947</v>
+        <v>914</v>
       </c>
       <c r="F7">
-        <v>1130</v>
+        <v>1081</v>
       </c>
       <c r="G7">
-        <v>1221</v>
+        <v>1168</v>
       </c>
       <c r="H7">
-        <v>1221</v>
+        <v>1160</v>
       </c>
       <c r="I7">
-        <v>1130</v>
+        <v>1103</v>
       </c>
       <c r="J7">
-        <v>947</v>
+        <v>913</v>
       </c>
       <c r="K7">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="L7">
-        <v>550</v>
+        <v>369</v>
       </c>
       <c r="M7">
-        <v>566</v>
+        <v>387</v>
       </c>
       <c r="N7">
-        <v>545</v>
+        <v>371</v>
       </c>
       <c r="O7">
-        <v>526</v>
+        <v>351</v>
       </c>
       <c r="P7">
-        <v>479</v>
+        <v>329</v>
       </c>
       <c r="Q7">
-        <v>437</v>
+        <v>294</v>
       </c>
       <c r="R7">
-        <v>449</v>
+        <v>305</v>
       </c>
       <c r="S7">
-        <v>566</v>
+        <v>381</v>
       </c>
       <c r="T7">
-        <v>652</v>
+        <v>441</v>
       </c>
       <c r="U7">
-        <v>634</v>
+        <v>433</v>
       </c>
       <c r="V7">
-        <v>725</v>
+        <v>488</v>
       </c>
       <c r="W7">
-        <v>955</v>
+        <v>625</v>
       </c>
       <c r="X7">
-        <v>809</v>
+        <v>563</v>
       </c>
       <c r="Y7">
-        <v>864</v>
+        <v>592</v>
       </c>
       <c r="Z7">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="AA7">
-        <v>1170</v>
+        <v>1123</v>
       </c>
       <c r="AB7">
-        <v>1170</v>
+        <v>1138</v>
       </c>
       <c r="AC7">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="AD7">
-        <v>770</v>
+        <v>741</v>
       </c>
       <c r="AE7">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="AF7">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="AG7">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="AH7">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="AI7">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="AJ7">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="AK7">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AL7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -1339,109 +1339,109 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="E8">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="F8">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="G8">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="H8">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="I8">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="J8">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="K8">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="L8">
-        <v>282</v>
+        <v>189</v>
       </c>
       <c r="M8">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="N8">
-        <v>286</v>
+        <v>193</v>
       </c>
       <c r="O8">
-        <v>316</v>
+        <v>214</v>
       </c>
       <c r="P8">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="Q8">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="R8">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="S8">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="T8">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="U8">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="V8">
-        <v>420</v>
+        <v>291</v>
       </c>
       <c r="W8">
-        <v>493</v>
+        <v>323</v>
       </c>
       <c r="X8">
-        <v>450</v>
+        <v>305</v>
       </c>
       <c r="Y8">
-        <v>548</v>
+        <v>376</v>
       </c>
       <c r="Z8">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="AA8">
-        <v>759</v>
+        <v>724</v>
       </c>
       <c r="AB8">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="AC8">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AD8">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="AE8">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="AF8">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="AG8">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AH8">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AI8">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="AJ8">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="AK8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AL8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AM8">
         <v>5</v>
@@ -1455,112 +1455,112 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="E9">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="F9">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="G9">
-        <v>905</v>
+        <v>862</v>
       </c>
       <c r="H9">
-        <v>905</v>
+        <v>865</v>
       </c>
       <c r="I9">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="J9">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="K9">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="L9">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="M9">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="N9">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="O9">
-        <v>322</v>
+        <v>221</v>
       </c>
       <c r="P9">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="Q9">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="R9">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="S9">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="T9">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="U9">
-        <v>359</v>
+        <v>242</v>
       </c>
       <c r="V9">
-        <v>447</v>
+        <v>301</v>
       </c>
       <c r="W9">
-        <v>732</v>
+        <v>489</v>
       </c>
       <c r="X9">
-        <v>859</v>
+        <v>592</v>
       </c>
       <c r="Y9">
-        <v>905</v>
+        <v>621</v>
       </c>
       <c r="Z9">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="AA9">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="AB9">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="AC9">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AD9">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="AE9">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="AF9">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="AG9">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="AH9">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="AI9">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="AJ9">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="AK9">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AL9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1574,112 +1574,112 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E10">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F10">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G10">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H10">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I10">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J10">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="K10">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L10">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="M10">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="N10">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="O10">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="P10">
+        <v>93</v>
+      </c>
+      <c r="Q10">
+        <v>90</v>
+      </c>
+      <c r="R10">
+        <v>101</v>
+      </c>
+      <c r="S10">
+        <v>109</v>
+      </c>
+      <c r="T10">
+        <v>117</v>
+      </c>
+      <c r="U10">
+        <v>111</v>
+      </c>
+      <c r="V10">
+        <v>126</v>
+      </c>
+      <c r="W10">
         <v>137</v>
       </c>
-      <c r="Q10">
-        <v>135</v>
-      </c>
-      <c r="R10">
-        <v>146</v>
-      </c>
-      <c r="S10">
-        <v>164</v>
-      </c>
-      <c r="T10">
-        <v>172</v>
-      </c>
-      <c r="U10">
-        <v>162</v>
-      </c>
-      <c r="V10">
-        <v>182</v>
-      </c>
-      <c r="W10">
-        <v>207</v>
-      </c>
       <c r="X10">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="Y10">
-        <v>337</v>
+        <v>226</v>
       </c>
       <c r="Z10">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA10">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="AB10">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AC10">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AD10">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AE10">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AF10">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG10">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AH10">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AI10">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AJ10">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AK10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -1696,106 +1696,106 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E11">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F11">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G11">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H11">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I11">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J11">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K11">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="M11">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="N11">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="O11">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="P11">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="Q11">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="R11">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="S11">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="T11">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="U11">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="V11">
+        <v>90</v>
+      </c>
+      <c r="W11">
+        <v>164</v>
+      </c>
+      <c r="X11">
+        <v>171</v>
+      </c>
+      <c r="Y11">
+        <v>173</v>
+      </c>
+      <c r="Z11">
+        <v>136</v>
+      </c>
+      <c r="AA11">
+        <v>238</v>
+      </c>
+      <c r="AB11">
+        <v>238</v>
+      </c>
+      <c r="AC11">
         <v>134</v>
       </c>
-      <c r="W11">
-        <v>245</v>
-      </c>
-      <c r="X11">
-        <v>248</v>
-      </c>
-      <c r="Y11">
-        <v>256</v>
-      </c>
-      <c r="Z11">
-        <v>141</v>
-      </c>
-      <c r="AA11">
-        <v>245</v>
-      </c>
-      <c r="AB11">
-        <v>245</v>
-      </c>
-      <c r="AC11">
-        <v>141</v>
-      </c>
       <c r="AD11">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AE11">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AF11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AG11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL11">
         <v>13</v>
@@ -1812,112 +1812,112 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E12">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F12">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="G12">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H12">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I12">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J12">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K12">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="N12">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="O12">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="P12">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="Q12">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="R12">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="S12">
+        <v>102</v>
+      </c>
+      <c r="T12">
+        <v>82</v>
+      </c>
+      <c r="U12">
+        <v>95</v>
+      </c>
+      <c r="V12">
+        <v>112</v>
+      </c>
+      <c r="W12">
         <v>153</v>
       </c>
-      <c r="T12">
-        <v>119</v>
-      </c>
-      <c r="U12">
+      <c r="X12">
+        <v>182</v>
+      </c>
+      <c r="Y12">
+        <v>224</v>
+      </c>
+      <c r="Z12">
+        <v>184</v>
+      </c>
+      <c r="AA12">
+        <v>319</v>
+      </c>
+      <c r="AB12">
+        <v>323</v>
+      </c>
+      <c r="AC12">
+        <v>186</v>
+      </c>
+      <c r="AD12">
+        <v>261</v>
+      </c>
+      <c r="AE12">
+        <v>221</v>
+      </c>
+      <c r="AF12">
+        <v>215</v>
+      </c>
+      <c r="AG12">
+        <v>196</v>
+      </c>
+      <c r="AH12">
+        <v>161</v>
+      </c>
+      <c r="AI12">
+        <v>138</v>
+      </c>
+      <c r="AJ12">
         <v>139</v>
       </c>
-      <c r="V12">
-        <v>164</v>
-      </c>
-      <c r="W12">
-        <v>230</v>
-      </c>
-      <c r="X12">
-        <v>266</v>
-      </c>
-      <c r="Y12">
-        <v>330</v>
-      </c>
-      <c r="Z12">
-        <v>190</v>
-      </c>
-      <c r="AA12">
-        <v>331</v>
-      </c>
-      <c r="AB12">
-        <v>331</v>
-      </c>
-      <c r="AC12">
-        <v>190</v>
-      </c>
-      <c r="AD12">
-        <v>265</v>
-      </c>
-      <c r="AE12">
-        <v>230</v>
-      </c>
-      <c r="AF12">
-        <v>223</v>
-      </c>
-      <c r="AG12">
-        <v>202</v>
-      </c>
-      <c r="AH12">
-        <v>169</v>
-      </c>
-      <c r="AI12">
-        <v>146</v>
-      </c>
-      <c r="AJ12">
-        <v>142</v>
-      </c>
       <c r="AK12">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AL12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -1934,106 +1934,106 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E13">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F13">
+        <v>203</v>
+      </c>
+      <c r="G13">
+        <v>215</v>
+      </c>
+      <c r="H13">
+        <v>215</v>
+      </c>
+      <c r="I13">
+        <v>200</v>
+      </c>
+      <c r="J13">
+        <v>169</v>
+      </c>
+      <c r="K13">
+        <v>118</v>
+      </c>
+      <c r="L13">
+        <v>39</v>
+      </c>
+      <c r="M13">
+        <v>61</v>
+      </c>
+      <c r="N13">
+        <v>60</v>
+      </c>
+      <c r="O13">
+        <v>71</v>
+      </c>
+      <c r="P13">
+        <v>65</v>
+      </c>
+      <c r="Q13">
+        <v>66</v>
+      </c>
+      <c r="R13">
+        <v>55</v>
+      </c>
+      <c r="S13">
+        <v>71</v>
+      </c>
+      <c r="T13">
+        <v>63</v>
+      </c>
+      <c r="U13">
+        <v>70</v>
+      </c>
+      <c r="V13">
+        <v>83</v>
+      </c>
+      <c r="W13">
+        <v>82</v>
+      </c>
+      <c r="X13">
+        <v>84</v>
+      </c>
+      <c r="Y13">
+        <v>120</v>
+      </c>
+      <c r="Z13">
+        <v>118</v>
+      </c>
+      <c r="AA13">
         <v>208</v>
       </c>
-      <c r="G13">
-        <v>225</v>
-      </c>
-      <c r="H13">
-        <v>225</v>
-      </c>
-      <c r="I13">
+      <c r="AB13">
         <v>208</v>
       </c>
-      <c r="J13">
-        <v>175</v>
-      </c>
-      <c r="K13">
-        <v>124</v>
-      </c>
-      <c r="L13">
-        <v>56</v>
-      </c>
-      <c r="M13">
-        <v>89</v>
-      </c>
-      <c r="N13">
-        <v>89</v>
-      </c>
-      <c r="O13">
-        <v>106</v>
-      </c>
-      <c r="P13">
-        <v>97</v>
-      </c>
-      <c r="Q13">
-        <v>98</v>
-      </c>
-      <c r="R13">
-        <v>81</v>
-      </c>
-      <c r="S13">
-        <v>107</v>
-      </c>
-      <c r="T13">
-        <v>91</v>
-      </c>
-      <c r="U13">
-        <v>103</v>
-      </c>
-      <c r="V13">
+      <c r="AC13">
         <v>119</v>
       </c>
-      <c r="W13">
-        <v>124</v>
-      </c>
-      <c r="X13">
-        <v>121</v>
-      </c>
-      <c r="Y13">
-        <v>176</v>
-      </c>
-      <c r="Z13">
-        <v>124</v>
-      </c>
-      <c r="AA13">
-        <v>216</v>
-      </c>
-      <c r="AB13">
-        <v>216</v>
-      </c>
-      <c r="AC13">
-        <v>124</v>
-      </c>
       <c r="AD13">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AE13">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF13">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AG13">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH13">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AI13">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ13">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AK13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL13">
         <v>12</v>
@@ -2053,106 +2053,106 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E14">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F14">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="G14">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H14">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I14">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="J14">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K14">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L14">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="M14">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N14">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="O14">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="P14">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="Q14">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="R14">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S14">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="T14">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="U14">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="V14">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="W14">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="X14">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="Y14">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="Z14">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AA14">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AB14">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="AC14">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AD14">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AE14">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AF14">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AG14">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AH14">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AI14">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AJ14">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL14">
         <v>8</v>
@@ -2172,106 +2172,106 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E15">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F15">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G15">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H15">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="I15">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="J15">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K15">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L15">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="M15">
+        <v>67</v>
+      </c>
+      <c r="N15">
+        <v>67</v>
+      </c>
+      <c r="O15">
+        <v>71</v>
+      </c>
+      <c r="P15">
+        <v>90</v>
+      </c>
+      <c r="Q15">
+        <v>73</v>
+      </c>
+      <c r="R15">
+        <v>82</v>
+      </c>
+      <c r="S15">
+        <v>80</v>
+      </c>
+      <c r="T15">
+        <v>77</v>
+      </c>
+      <c r="U15">
+        <v>87</v>
+      </c>
+      <c r="V15">
+        <v>93</v>
+      </c>
+      <c r="W15">
         <v>100</v>
       </c>
-      <c r="N15">
-        <v>99</v>
-      </c>
-      <c r="O15">
-        <v>104</v>
-      </c>
-      <c r="P15">
-        <v>131</v>
-      </c>
-      <c r="Q15">
-        <v>110</v>
-      </c>
-      <c r="R15">
-        <v>122</v>
-      </c>
-      <c r="S15">
-        <v>119</v>
-      </c>
-      <c r="T15">
-        <v>115</v>
-      </c>
-      <c r="U15">
-        <v>131</v>
-      </c>
-      <c r="V15">
-        <v>138</v>
-      </c>
-      <c r="W15">
-        <v>152</v>
-      </c>
       <c r="X15">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="Y15">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="Z15">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AA15">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AB15">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AC15">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AD15">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AE15">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AF15">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AG15">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AH15">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AI15">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AJ15">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AK15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL15">
         <v>15</v>
@@ -2288,109 +2288,109 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E16">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F16">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="G16">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="H16">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I16">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J16">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K16">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L16">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="M16">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="N16">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="O16">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="P16">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="Q16">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="R16">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="S16">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="T16">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="U16">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="V16">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="W16">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="X16">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="Y16">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="Z16">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AA16">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AB16">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AC16">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AD16">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AE16">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AF16">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG16">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AH16">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AI16">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AJ16">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AK16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL16">
         <v>6</v>
@@ -2407,109 +2407,109 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E17">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F17">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G17">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="H17">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I17">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J17">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K17">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L17">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="M17">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="N17">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="O17">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="P17">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Q17">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="R17">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="S17">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="T17">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="U17">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="V17">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="W17">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="X17">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="Y17">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="Z17">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AA17">
+        <v>307</v>
+      </c>
+      <c r="AB17">
+        <v>315</v>
+      </c>
+      <c r="AC17">
+        <v>177</v>
+      </c>
+      <c r="AD17">
         <v>322</v>
       </c>
-      <c r="AB17">
-        <v>322</v>
-      </c>
-      <c r="AC17">
-        <v>185</v>
-      </c>
-      <c r="AD17">
-        <v>336</v>
-      </c>
       <c r="AE17">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="AF17">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AG17">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH17">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AI17">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AJ17">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AK17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL17">
         <v>8</v>
@@ -2526,106 +2526,106 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E18">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F18">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G18">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H18">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I18">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J18">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K18">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L18">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N18">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="O18">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="P18">
+        <v>39</v>
+      </c>
+      <c r="Q18">
+        <v>48</v>
+      </c>
+      <c r="R18">
+        <v>45</v>
+      </c>
+      <c r="S18">
+        <v>41</v>
+      </c>
+      <c r="T18">
+        <v>45</v>
+      </c>
+      <c r="U18">
+        <v>46</v>
+      </c>
+      <c r="V18">
+        <v>44</v>
+      </c>
+      <c r="W18">
+        <v>46</v>
+      </c>
+      <c r="X18">
+        <v>61</v>
+      </c>
+      <c r="Y18">
+        <v>83</v>
+      </c>
+      <c r="Z18">
+        <v>101</v>
+      </c>
+      <c r="AA18">
+        <v>175</v>
+      </c>
+      <c r="AB18">
+        <v>175</v>
+      </c>
+      <c r="AC18">
+        <v>102</v>
+      </c>
+      <c r="AD18">
+        <v>183</v>
+      </c>
+      <c r="AE18">
+        <v>183</v>
+      </c>
+      <c r="AF18">
+        <v>150</v>
+      </c>
+      <c r="AG18">
+        <v>127</v>
+      </c>
+      <c r="AH18">
+        <v>139</v>
+      </c>
+      <c r="AI18">
+        <v>88</v>
+      </c>
+      <c r="AJ18">
         <v>58</v>
-      </c>
-      <c r="Q18">
-        <v>71</v>
-      </c>
-      <c r="R18">
-        <v>67</v>
-      </c>
-      <c r="S18">
-        <v>61</v>
-      </c>
-      <c r="T18">
-        <v>68</v>
-      </c>
-      <c r="U18">
-        <v>69</v>
-      </c>
-      <c r="V18">
-        <v>65</v>
-      </c>
-      <c r="W18">
-        <v>71</v>
-      </c>
-      <c r="X18">
-        <v>89</v>
-      </c>
-      <c r="Y18">
-        <v>122</v>
-      </c>
-      <c r="Z18">
-        <v>106</v>
-      </c>
-      <c r="AA18">
-        <v>184</v>
-      </c>
-      <c r="AB18">
-        <v>184</v>
-      </c>
-      <c r="AC18">
-        <v>106</v>
-      </c>
-      <c r="AD18">
-        <v>192</v>
-      </c>
-      <c r="AE18">
-        <v>192</v>
-      </c>
-      <c r="AF18">
-        <v>158</v>
-      </c>
-      <c r="AG18">
-        <v>131</v>
-      </c>
-      <c r="AH18">
-        <v>146</v>
-      </c>
-      <c r="AI18">
-        <v>90</v>
-      </c>
-      <c r="AJ18">
-        <v>61</v>
       </c>
       <c r="AK18">
         <v>24</v>
@@ -2645,109 +2645,109 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E19">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F19">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G19">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H19">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I19">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J19">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K19">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L19">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="M19">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="N19">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="O19">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P19">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="Q19">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="R19">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="S19">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="T19">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="U19">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="V19">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="W19">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="X19">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="Y19">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="Z19">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AA19">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AB19">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AC19">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AD19">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AE19">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AF19">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AG19">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AH19">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AI19">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AJ19">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AK19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19">
         <v>3</v>
@@ -2764,106 +2764,106 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E20">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20">
+        <v>105</v>
+      </c>
+      <c r="G20">
+        <v>112</v>
+      </c>
+      <c r="H20">
+        <v>113</v>
+      </c>
+      <c r="I20">
+        <v>105</v>
+      </c>
+      <c r="J20">
+        <v>88</v>
+      </c>
+      <c r="K20">
+        <v>63</v>
+      </c>
+      <c r="L20">
+        <v>70</v>
+      </c>
+      <c r="M20">
+        <v>47</v>
+      </c>
+      <c r="N20">
+        <v>37</v>
+      </c>
+      <c r="O20">
+        <v>33</v>
+      </c>
+      <c r="P20">
+        <v>36</v>
+      </c>
+      <c r="Q20">
+        <v>41</v>
+      </c>
+      <c r="R20">
+        <v>36</v>
+      </c>
+      <c r="S20">
+        <v>38</v>
+      </c>
+      <c r="T20">
+        <v>31</v>
+      </c>
+      <c r="U20">
+        <v>29</v>
+      </c>
+      <c r="V20">
+        <v>23</v>
+      </c>
+      <c r="W20">
+        <v>28</v>
+      </c>
+      <c r="X20">
+        <v>33</v>
+      </c>
+      <c r="Y20">
+        <v>43</v>
+      </c>
+      <c r="Z20">
+        <v>62</v>
+      </c>
+      <c r="AA20">
         <v>109</v>
       </c>
-      <c r="G20">
-        <v>118</v>
-      </c>
-      <c r="H20">
-        <v>118</v>
-      </c>
-      <c r="I20">
-        <v>109</v>
-      </c>
-      <c r="J20">
-        <v>92</v>
-      </c>
-      <c r="K20">
-        <v>65</v>
-      </c>
-      <c r="L20">
-        <v>104</v>
-      </c>
-      <c r="M20">
-        <v>70</v>
-      </c>
-      <c r="N20">
-        <v>54</v>
-      </c>
-      <c r="O20">
-        <v>49</v>
-      </c>
-      <c r="P20">
-        <v>52</v>
-      </c>
-      <c r="Q20">
-        <v>61</v>
-      </c>
-      <c r="R20">
-        <v>53</v>
-      </c>
-      <c r="S20">
-        <v>58</v>
-      </c>
-      <c r="T20">
-        <v>46</v>
-      </c>
-      <c r="U20">
-        <v>43</v>
-      </c>
-      <c r="V20">
-        <v>33</v>
-      </c>
-      <c r="W20">
-        <v>41</v>
-      </c>
-      <c r="X20">
-        <v>49</v>
-      </c>
-      <c r="Y20">
-        <v>65</v>
-      </c>
-      <c r="Z20">
-        <v>65</v>
-      </c>
-      <c r="AA20">
-        <v>113</v>
-      </c>
       <c r="AB20">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AC20">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD20">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AE20">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AF20">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG20">
         <v>51</v>
       </c>
       <c r="AH20">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AI20">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK20">
         <v>8</v>
@@ -2880,106 +2880,106 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21">
+        <v>66</v>
+      </c>
+      <c r="G21">
+        <v>71</v>
+      </c>
+      <c r="H21">
+        <v>72</v>
+      </c>
+      <c r="I21">
+        <v>65</v>
+      </c>
+      <c r="J21">
+        <v>54</v>
+      </c>
+      <c r="K21">
+        <v>40</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>27</v>
+      </c>
+      <c r="O21">
+        <v>25</v>
+      </c>
+      <c r="P21">
+        <v>30</v>
+      </c>
+      <c r="Q21">
+        <v>29</v>
+      </c>
+      <c r="R21">
+        <v>25</v>
+      </c>
+      <c r="S21">
+        <v>27</v>
+      </c>
+      <c r="T21">
+        <v>24</v>
+      </c>
+      <c r="U21">
+        <v>24</v>
+      </c>
+      <c r="V21">
+        <v>17</v>
+      </c>
+      <c r="W21">
+        <v>21</v>
+      </c>
+      <c r="X21">
+        <v>23</v>
+      </c>
+      <c r="Y21">
+        <v>23</v>
+      </c>
+      <c r="Z21">
+        <v>39</v>
+      </c>
+      <c r="AA21">
         <v>68</v>
       </c>
-      <c r="G21">
-        <v>74</v>
-      </c>
-      <c r="H21">
-        <v>74</v>
-      </c>
-      <c r="I21">
+      <c r="AB21">
         <v>68</v>
       </c>
-      <c r="J21">
-        <v>57</v>
-      </c>
-      <c r="K21">
-        <v>41</v>
-      </c>
-      <c r="L21">
-        <v>74</v>
-      </c>
-      <c r="M21">
-        <v>50</v>
-      </c>
-      <c r="N21">
+      <c r="AC21">
         <v>40</v>
       </c>
-      <c r="O21">
-        <v>38</v>
-      </c>
-      <c r="P21">
-        <v>45</v>
-      </c>
-      <c r="Q21">
-        <v>43</v>
-      </c>
-      <c r="R21">
-        <v>37</v>
-      </c>
-      <c r="S21">
-        <v>40</v>
-      </c>
-      <c r="T21">
-        <v>35</v>
-      </c>
-      <c r="U21">
-        <v>35</v>
-      </c>
-      <c r="V21">
+      <c r="AD21">
+        <v>44</v>
+      </c>
+      <c r="AE21">
+        <v>30</v>
+      </c>
+      <c r="AF21">
+        <v>25</v>
+      </c>
+      <c r="AG21">
         <v>24</v>
       </c>
-      <c r="W21">
-        <v>33</v>
-      </c>
-      <c r="X21">
-        <v>33</v>
-      </c>
-      <c r="Y21">
-        <v>35</v>
-      </c>
-      <c r="Z21">
-        <v>41</v>
-      </c>
-      <c r="AA21">
-        <v>71</v>
-      </c>
-      <c r="AB21">
-        <v>71</v>
-      </c>
-      <c r="AC21">
-        <v>41</v>
-      </c>
-      <c r="AD21">
-        <v>46</v>
-      </c>
-      <c r="AE21">
-        <v>32</v>
-      </c>
-      <c r="AF21">
-        <v>27</v>
-      </c>
-      <c r="AG21">
-        <v>25</v>
-      </c>
       <c r="AH21">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI21">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ21">
         <v>14</v>
@@ -2999,7 +2999,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -3008,82 +3008,82 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P22">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="R22">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="V22">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z22">
         <v>21</v>
       </c>
       <c r="AA22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE22">
         <v>17</v>
@@ -3092,7 +3092,7 @@
         <v>17</v>
       </c>
       <c r="AG22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH22">
         <v>16</v>
@@ -3121,82 +3121,82 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N23">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O23">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P23">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="R23">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S23">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="T23">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U23">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="V23">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W23">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="X23">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y23">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA23">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB23">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC23">
         <v>22</v>
@@ -3613,88 +3613,88 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>46</v>
+      </c>
+      <c r="J3">
+        <v>39</v>
+      </c>
+      <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>26</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>21</v>
+      </c>
+      <c r="S3">
+        <v>21</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>19</v>
+      </c>
+      <c r="X3">
+        <v>21</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>27</v>
+      </c>
+      <c r="AA3">
         <v>48</v>
       </c>
-      <c r="G3">
-        <v>52</v>
-      </c>
-      <c r="H3">
-        <v>52</v>
-      </c>
-      <c r="I3">
-        <v>48</v>
-      </c>
-      <c r="J3">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>28</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>37</v>
-      </c>
-      <c r="N3">
-        <v>29</v>
-      </c>
-      <c r="O3">
-        <v>28</v>
-      </c>
-      <c r="P3">
-        <v>29</v>
-      </c>
-      <c r="Q3">
-        <v>29</v>
-      </c>
-      <c r="R3">
-        <v>32</v>
-      </c>
-      <c r="S3">
-        <v>30</v>
-      </c>
-      <c r="T3">
-        <v>28</v>
-      </c>
-      <c r="U3">
-        <v>30</v>
-      </c>
-      <c r="V3">
-        <v>24</v>
-      </c>
-      <c r="W3">
-        <v>28</v>
-      </c>
-      <c r="X3">
-        <v>31</v>
-      </c>
-      <c r="Y3">
-        <v>37</v>
-      </c>
-      <c r="Z3">
-        <v>28</v>
-      </c>
-      <c r="AA3">
-        <v>49</v>
-      </c>
       <c r="AB3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD3">
         <v>26</v>
       </c>
       <c r="AE3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF3">
         <v>15</v>
@@ -3703,7 +3703,7 @@
         <v>15</v>
       </c>
       <c r="AH3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI3">
         <v>10</v>
@@ -3732,103 +3732,103 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I4">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N4">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P4">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q4">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="R4">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="S4">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="T4">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="U4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V4">
+        <v>19</v>
+      </c>
+      <c r="W4">
+        <v>21</v>
+      </c>
+      <c r="X4">
+        <v>22</v>
+      </c>
+      <c r="Y4">
         <v>29</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>31</v>
       </c>
-      <c r="X4">
-        <v>33</v>
-      </c>
-      <c r="Y4">
-        <v>44</v>
-      </c>
-      <c r="Z4">
-        <v>32</v>
-      </c>
       <c r="AA4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AC4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD4">
         <v>25</v>
       </c>
       <c r="AE4">
+        <v>19</v>
+      </c>
+      <c r="AF4">
         <v>20</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>21</v>
       </c>
-      <c r="AG4">
-        <v>22</v>
-      </c>
       <c r="AH4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK4">
         <v>7</v>
@@ -3851,100 +3851,100 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F5">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H5">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I5">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J5">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M5">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N5">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>40</v>
+      </c>
+      <c r="P5">
+        <v>50</v>
+      </c>
+      <c r="Q5">
+        <v>44</v>
+      </c>
+      <c r="R5">
+        <v>47</v>
+      </c>
+      <c r="S5">
+        <v>46</v>
+      </c>
+      <c r="T5">
+        <v>43</v>
+      </c>
+      <c r="U5">
+        <v>45</v>
+      </c>
+      <c r="V5">
+        <v>51</v>
+      </c>
+      <c r="W5">
+        <v>59</v>
+      </c>
+      <c r="X5">
+        <v>67</v>
+      </c>
+      <c r="Y5">
+        <v>76</v>
+      </c>
+      <c r="Z5">
+        <v>60</v>
+      </c>
+      <c r="AA5">
+        <v>106</v>
+      </c>
+      <c r="AB5">
+        <v>104</v>
+      </c>
+      <c r="AC5">
+        <v>59</v>
+      </c>
+      <c r="AD5">
         <v>61</v>
       </c>
-      <c r="O5">
-        <v>60</v>
-      </c>
-      <c r="P5">
-        <v>74</v>
-      </c>
-      <c r="Q5">
-        <v>67</v>
-      </c>
-      <c r="R5">
-        <v>72</v>
-      </c>
-      <c r="S5">
-        <v>67</v>
-      </c>
-      <c r="T5">
-        <v>64</v>
-      </c>
-      <c r="U5">
-        <v>68</v>
-      </c>
-      <c r="V5">
-        <v>75</v>
-      </c>
-      <c r="W5">
-        <v>87</v>
-      </c>
-      <c r="X5">
-        <v>100</v>
-      </c>
-      <c r="Y5">
-        <v>113</v>
-      </c>
-      <c r="Z5">
-        <v>62</v>
-      </c>
-      <c r="AA5">
-        <v>108</v>
-      </c>
-      <c r="AB5">
-        <v>108</v>
-      </c>
-      <c r="AC5">
-        <v>62</v>
-      </c>
-      <c r="AD5">
-        <v>63</v>
-      </c>
       <c r="AE5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ5">
         <v>9</v>
@@ -3970,106 +3970,106 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H6">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I6">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J6">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>29</v>
+      </c>
+      <c r="O6">
+        <v>28</v>
+      </c>
+      <c r="P6">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6">
+        <v>32</v>
+      </c>
+      <c r="S6">
+        <v>32</v>
+      </c>
+      <c r="T6">
+        <v>33</v>
+      </c>
+      <c r="U6">
+        <v>30</v>
+      </c>
+      <c r="V6">
         <v>36</v>
       </c>
-      <c r="N6">
-        <v>42</v>
-      </c>
-      <c r="O6">
-        <v>42</v>
-      </c>
-      <c r="P6">
-        <v>38</v>
-      </c>
-      <c r="Q6">
-        <v>46</v>
-      </c>
-      <c r="R6">
-        <v>47</v>
-      </c>
-      <c r="S6">
-        <v>46</v>
-      </c>
-      <c r="T6">
-        <v>50</v>
-      </c>
-      <c r="U6">
-        <v>44</v>
-      </c>
-      <c r="V6">
+      <c r="W6">
+        <v>37</v>
+      </c>
+      <c r="X6">
+        <v>39</v>
+      </c>
+      <c r="Y6">
         <v>52</v>
       </c>
-      <c r="W6">
-        <v>55</v>
-      </c>
-      <c r="X6">
-        <v>58</v>
-      </c>
-      <c r="Y6">
-        <v>78</v>
-      </c>
       <c r="Z6">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AA6">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AB6">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AC6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE6">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AF6">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG6">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AH6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AI6">
         <v>36</v>
       </c>
       <c r="AJ6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL6">
         <v>3</v>
@@ -4089,106 +4089,106 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E7">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F7">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G7">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="H7">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="I7">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J7">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="K7">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="L7">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="M7">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="N7">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="O7">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="P7">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="Q7">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="R7">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="S7">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="T7">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="U7">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="V7">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="W7">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="X7">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="Y7">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="Z7">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="AA7">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="AB7">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AC7">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AD7">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AE7">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AF7">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AG7">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AH7">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AI7">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AJ7">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AK7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL7">
         <v>10</v>
@@ -4208,109 +4208,109 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E8">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F8">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G8">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="H8">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="I8">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="J8">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="K8">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L8">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="M8">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="N8">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="O8">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="P8">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="R8">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="S8">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="T8">
+        <v>88</v>
+      </c>
+      <c r="U8">
+        <v>101</v>
+      </c>
+      <c r="V8">
+        <v>123</v>
+      </c>
+      <c r="W8">
+        <v>144</v>
+      </c>
+      <c r="X8">
         <v>136</v>
       </c>
-      <c r="U8">
-        <v>150</v>
-      </c>
-      <c r="V8">
-        <v>183</v>
-      </c>
-      <c r="W8">
-        <v>212</v>
-      </c>
-      <c r="X8">
-        <v>199</v>
-      </c>
       <c r="Y8">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="Z8">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AA8">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="AB8">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AC8">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AD8">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AE8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AF8">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AG8">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AH8">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AI8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AJ8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AK8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AL8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -4327,109 +4327,109 @@
         <v>14</v>
       </c>
       <c r="D9">
+        <v>253</v>
+      </c>
+      <c r="E9">
+        <v>359</v>
+      </c>
+      <c r="F9">
+        <v>430</v>
+      </c>
+      <c r="G9">
+        <v>467</v>
+      </c>
+      <c r="H9">
+        <v>466</v>
+      </c>
+      <c r="I9">
+        <v>425</v>
+      </c>
+      <c r="J9">
+        <v>365</v>
+      </c>
+      <c r="K9">
+        <v>257</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>104</v>
+      </c>
+      <c r="N9">
+        <v>98</v>
+      </c>
+      <c r="O9">
+        <v>115</v>
+      </c>
+      <c r="P9">
+        <v>106</v>
+      </c>
+      <c r="Q9">
+        <v>91</v>
+      </c>
+      <c r="R9">
+        <v>105</v>
+      </c>
+      <c r="S9">
+        <v>96</v>
+      </c>
+      <c r="T9">
+        <v>133</v>
+      </c>
+      <c r="U9">
+        <v>129</v>
+      </c>
+      <c r="V9">
+        <v>159</v>
+      </c>
+      <c r="W9">
         <v>266</v>
       </c>
-      <c r="E9">
-        <v>374</v>
-      </c>
-      <c r="F9">
-        <v>447</v>
-      </c>
-      <c r="G9">
-        <v>483</v>
-      </c>
-      <c r="H9">
-        <v>483</v>
-      </c>
-      <c r="I9">
-        <v>447</v>
-      </c>
-      <c r="J9">
-        <v>374</v>
-      </c>
-      <c r="K9">
-        <v>266</v>
-      </c>
-      <c r="L9">
-        <v>145</v>
-      </c>
-      <c r="M9">
-        <v>150</v>
-      </c>
-      <c r="N9">
-        <v>149</v>
-      </c>
-      <c r="O9">
-        <v>172</v>
-      </c>
-      <c r="P9">
-        <v>159</v>
-      </c>
-      <c r="Q9">
-        <v>136</v>
-      </c>
-      <c r="R9">
-        <v>155</v>
-      </c>
-      <c r="S9">
-        <v>137</v>
-      </c>
-      <c r="T9">
-        <v>200</v>
-      </c>
-      <c r="U9">
-        <v>188</v>
-      </c>
-      <c r="V9">
-        <v>237</v>
-      </c>
-      <c r="W9">
-        <v>383</v>
-      </c>
       <c r="X9">
-        <v>462</v>
+        <v>310</v>
       </c>
       <c r="Y9">
-        <v>483</v>
+        <v>324</v>
       </c>
       <c r="Z9">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="AA9">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="AB9">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="AC9">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AD9">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="AE9">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF9">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AG9">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AH9">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="AI9">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AJ9">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AK9">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AL9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -4446,106 +4446,106 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E10">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G10">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H10">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I10">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J10">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K10">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="N10">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="O10">
+        <v>60</v>
+      </c>
+      <c r="P10">
+        <v>59</v>
+      </c>
+      <c r="Q10">
+        <v>57</v>
+      </c>
+      <c r="R10">
+        <v>65</v>
+      </c>
+      <c r="S10">
+        <v>72</v>
+      </c>
+      <c r="T10">
+        <v>74</v>
+      </c>
+      <c r="U10">
+        <v>69</v>
+      </c>
+      <c r="V10">
+        <v>79</v>
+      </c>
+      <c r="W10">
         <v>89</v>
       </c>
-      <c r="P10">
-        <v>88</v>
-      </c>
-      <c r="Q10">
+      <c r="X10">
+        <v>118</v>
+      </c>
+      <c r="Y10">
+        <v>145</v>
+      </c>
+      <c r="Z10">
+        <v>113</v>
+      </c>
+      <c r="AA10">
+        <v>201</v>
+      </c>
+      <c r="AB10">
+        <v>204</v>
+      </c>
+      <c r="AC10">
+        <v>115</v>
+      </c>
+      <c r="AD10">
+        <v>154</v>
+      </c>
+      <c r="AE10">
+        <v>116</v>
+      </c>
+      <c r="AF10">
+        <v>109</v>
+      </c>
+      <c r="AG10">
+        <v>76</v>
+      </c>
+      <c r="AH10">
         <v>86</v>
       </c>
-      <c r="R10">
-        <v>96</v>
-      </c>
-      <c r="S10">
-        <v>104</v>
-      </c>
-      <c r="T10">
-        <v>111</v>
-      </c>
-      <c r="U10">
-        <v>103</v>
-      </c>
-      <c r="V10">
-        <v>116</v>
-      </c>
-      <c r="W10">
-        <v>131</v>
-      </c>
-      <c r="X10">
-        <v>177</v>
-      </c>
-      <c r="Y10">
-        <v>217</v>
-      </c>
-      <c r="Z10">
-        <v>119</v>
-      </c>
-      <c r="AA10">
-        <v>208</v>
-      </c>
-      <c r="AB10">
-        <v>208</v>
-      </c>
-      <c r="AC10">
-        <v>119</v>
-      </c>
-      <c r="AD10">
-        <v>159</v>
-      </c>
-      <c r="AE10">
-        <v>121</v>
-      </c>
-      <c r="AF10">
-        <v>113</v>
-      </c>
-      <c r="AG10">
-        <v>79</v>
-      </c>
-      <c r="AH10">
-        <v>90</v>
-      </c>
       <c r="AI10">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AK10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL10">
         <v>10</v>
@@ -4562,109 +4562,109 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F11">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G11">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H11">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I11">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M11">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="N11">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O11">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="P11">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="Q11">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="R11">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="S11">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="T11">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="U11">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="V11">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="W11">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="X11">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="Y11">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="Z11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AA11">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AB11">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AC11">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AD11">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AE11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AF11">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AH11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL11">
         <v>9</v>
@@ -4681,112 +4681,112 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E12">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F12">
+        <v>285</v>
+      </c>
+      <c r="G12">
+        <v>303</v>
+      </c>
+      <c r="H12">
+        <v>302</v>
+      </c>
+      <c r="I12">
+        <v>283</v>
+      </c>
+      <c r="J12">
+        <v>240</v>
+      </c>
+      <c r="K12">
+        <v>170</v>
+      </c>
+      <c r="L12">
+        <v>72</v>
+      </c>
+      <c r="M12">
+        <v>59</v>
+      </c>
+      <c r="N12">
+        <v>65</v>
+      </c>
+      <c r="O12">
+        <v>71</v>
+      </c>
+      <c r="P12">
+        <v>78</v>
+      </c>
+      <c r="Q12">
+        <v>78</v>
+      </c>
+      <c r="R12">
+        <v>90</v>
+      </c>
+      <c r="S12">
+        <v>96</v>
+      </c>
+      <c r="T12">
+        <v>72</v>
+      </c>
+      <c r="U12">
+        <v>87</v>
+      </c>
+      <c r="V12">
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <v>142</v>
+      </c>
+      <c r="X12">
+        <v>166</v>
+      </c>
+      <c r="Y12">
+        <v>200</v>
+      </c>
+      <c r="Z12">
+        <v>169</v>
+      </c>
+      <c r="AA12">
         <v>293</v>
       </c>
-      <c r="G12">
-        <v>317</v>
-      </c>
-      <c r="H12">
-        <v>317</v>
-      </c>
-      <c r="I12">
-        <v>293</v>
-      </c>
-      <c r="J12">
-        <v>246</v>
-      </c>
-      <c r="K12">
-        <v>174</v>
-      </c>
-      <c r="L12">
-        <v>106</v>
-      </c>
-      <c r="M12">
-        <v>86</v>
-      </c>
-      <c r="N12">
-        <v>98</v>
-      </c>
-      <c r="O12">
-        <v>104</v>
-      </c>
-      <c r="P12">
-        <v>114</v>
-      </c>
-      <c r="Q12">
-        <v>116</v>
-      </c>
-      <c r="R12">
-        <v>136</v>
-      </c>
-      <c r="S12">
-        <v>138</v>
-      </c>
-      <c r="T12">
-        <v>109</v>
-      </c>
-      <c r="U12">
-        <v>126</v>
-      </c>
-      <c r="V12">
-        <v>149</v>
-      </c>
-      <c r="W12">
-        <v>207</v>
-      </c>
-      <c r="X12">
-        <v>246</v>
-      </c>
-      <c r="Y12">
-        <v>302</v>
-      </c>
-      <c r="Z12">
-        <v>174</v>
-      </c>
-      <c r="AA12">
-        <v>304</v>
-      </c>
       <c r="AB12">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AC12">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AD12">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AE12">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AF12">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AG12">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AH12">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AI12">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AJ12">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK12">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AL12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -4803,109 +4803,109 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F13">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G13">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H13">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I13">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J13">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K13">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L13">
+        <v>41</v>
+      </c>
+      <c r="M13">
+        <v>65</v>
+      </c>
+      <c r="N13">
+        <v>65</v>
+      </c>
+      <c r="O13">
+        <v>79</v>
+      </c>
+      <c r="P13">
+        <v>71</v>
+      </c>
+      <c r="Q13">
+        <v>71</v>
+      </c>
+      <c r="R13">
         <v>61</v>
       </c>
-      <c r="M13">
-        <v>96</v>
-      </c>
-      <c r="N13">
-        <v>97</v>
-      </c>
-      <c r="O13">
-        <v>115</v>
-      </c>
-      <c r="P13">
-        <v>106</v>
-      </c>
-      <c r="Q13">
-        <v>107</v>
-      </c>
-      <c r="R13">
+      <c r="S13">
+        <v>81</v>
+      </c>
+      <c r="T13">
+        <v>67</v>
+      </c>
+      <c r="U13">
+        <v>75</v>
+      </c>
+      <c r="V13">
+        <v>88</v>
+      </c>
+      <c r="W13">
+        <v>91</v>
+      </c>
+      <c r="X13">
         <v>90</v>
       </c>
-      <c r="S13">
-        <v>115</v>
-      </c>
-      <c r="T13">
-        <v>101</v>
-      </c>
-      <c r="U13">
-        <v>110</v>
-      </c>
-      <c r="V13">
+      <c r="Y13">
         <v>129</v>
       </c>
-      <c r="W13">
-        <v>132</v>
-      </c>
-      <c r="X13">
-        <v>133</v>
-      </c>
-      <c r="Y13">
-        <v>193</v>
-      </c>
       <c r="Z13">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AA13">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AB13">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AC13">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AD13">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AE13">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AF13">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AG13">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AH13">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AI13">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AJ13">
         <v>50</v>
       </c>
       <c r="AK13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -4919,109 +4919,109 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E14">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F14">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="G14">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H14">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="I14">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="J14">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="K14">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L14">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="M14">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="N14">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="O14">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="P14">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="Q14">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="R14">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="S14">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="T14">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="U14">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="V14">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="W14">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="X14">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="Y14">
-        <v>398</v>
+        <v>266</v>
       </c>
       <c r="Z14">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA14">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AB14">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AC14">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AD14">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="AE14">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AF14">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AG14">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AH14">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AI14">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ14">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL14">
         <v>10</v>
@@ -5038,112 +5038,112 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E15">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="F15">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G15">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="H15">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="I15">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="J15">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="K15">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L15">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="M15">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="N15">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="O15">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="P15">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="Q15">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="R15">
+        <v>131</v>
+      </c>
+      <c r="S15">
+        <v>125</v>
+      </c>
+      <c r="T15">
+        <v>120</v>
+      </c>
+      <c r="U15">
+        <v>137</v>
+      </c>
+      <c r="V15">
+        <v>148</v>
+      </c>
+      <c r="W15">
+        <v>161</v>
+      </c>
+      <c r="X15">
+        <v>175</v>
+      </c>
+      <c r="Y15">
+        <v>289</v>
+      </c>
+      <c r="Z15">
+        <v>261</v>
+      </c>
+      <c r="AA15">
+        <v>452</v>
+      </c>
+      <c r="AB15">
+        <v>450</v>
+      </c>
+      <c r="AC15">
+        <v>259</v>
+      </c>
+      <c r="AD15">
+        <v>470</v>
+      </c>
+      <c r="AE15">
+        <v>385</v>
+      </c>
+      <c r="AF15">
+        <v>355</v>
+      </c>
+      <c r="AG15">
+        <v>319</v>
+      </c>
+      <c r="AH15">
+        <v>246</v>
+      </c>
+      <c r="AI15">
         <v>194</v>
       </c>
-      <c r="S15">
-        <v>182</v>
-      </c>
-      <c r="T15">
-        <v>181</v>
-      </c>
-      <c r="U15">
-        <v>200</v>
-      </c>
-      <c r="V15">
-        <v>215</v>
-      </c>
-      <c r="W15">
-        <v>233</v>
-      </c>
-      <c r="X15">
-        <v>260</v>
-      </c>
-      <c r="Y15">
-        <v>434</v>
-      </c>
-      <c r="Z15">
-        <v>270</v>
-      </c>
-      <c r="AA15">
-        <v>470</v>
-      </c>
-      <c r="AB15">
-        <v>470</v>
-      </c>
-      <c r="AC15">
-        <v>270</v>
-      </c>
-      <c r="AD15">
-        <v>491</v>
-      </c>
-      <c r="AE15">
-        <v>397</v>
-      </c>
-      <c r="AF15">
-        <v>374</v>
-      </c>
-      <c r="AG15">
-        <v>334</v>
-      </c>
-      <c r="AH15">
-        <v>253</v>
-      </c>
-      <c r="AI15">
-        <v>200</v>
-      </c>
       <c r="AJ15">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AK15">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AL15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM15">
         <v>5</v>
@@ -5157,109 +5157,109 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E16">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F16">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="G16">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="H16">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="I16">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="J16">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="K16">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="L16">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="M16">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="N16">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="O16">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="P16">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="Q16">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="R16">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="S16">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="T16">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="U16">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="V16">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="W16">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="X16">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="Y16">
-        <v>490</v>
+        <v>329</v>
       </c>
       <c r="Z16">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="AA16">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="AB16">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="AC16">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AD16">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AE16">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="AF16">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="AG16">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AH16">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AI16">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AJ16">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AK16">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL16">
         <v>12</v>
@@ -5276,109 +5276,109 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E17">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F17">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="G17">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="H17">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="I17">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="J17">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="K17">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="L17">
-        <v>364</v>
+        <v>243</v>
       </c>
       <c r="M17">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="N17">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="O17">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="P17">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="Q17">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="R17">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="S17">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="T17">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="U17">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="V17">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="W17">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="X17">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="Y17">
-        <v>660</v>
+        <v>432</v>
       </c>
       <c r="Z17">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AA17">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="AB17">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="AC17">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="AD17">
-        <v>769</v>
+        <v>731</v>
       </c>
       <c r="AE17">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="AF17">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="AG17">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AH17">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="AI17">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AJ17">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="AK17">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL17">
         <v>19</v>
@@ -5392,115 +5392,115 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E18">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="F18">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="G18">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="H18">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="I18">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="J18">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="K18">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L18">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="M18">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="N18">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="O18">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="P18">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="Q18">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="R18">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="S18">
+        <v>117</v>
+      </c>
+      <c r="T18">
+        <v>125</v>
+      </c>
+      <c r="U18">
+        <v>133</v>
+      </c>
+      <c r="V18">
+        <v>125</v>
+      </c>
+      <c r="W18">
+        <v>135</v>
+      </c>
+      <c r="X18">
+        <v>171</v>
+      </c>
+      <c r="Y18">
+        <v>226</v>
+      </c>
+      <c r="Z18">
+        <v>292</v>
+      </c>
+      <c r="AA18">
+        <v>496</v>
+      </c>
+      <c r="AB18">
+        <v>502</v>
+      </c>
+      <c r="AC18">
+        <v>293</v>
+      </c>
+      <c r="AD18">
+        <v>518</v>
+      </c>
+      <c r="AE18">
+        <v>524</v>
+      </c>
+      <c r="AF18">
+        <v>428</v>
+      </c>
+      <c r="AG18">
+        <v>362</v>
+      </c>
+      <c r="AH18">
+        <v>394</v>
+      </c>
+      <c r="AI18">
+        <v>245</v>
+      </c>
+      <c r="AJ18">
         <v>169</v>
       </c>
-      <c r="T18">
-        <v>191</v>
-      </c>
-      <c r="U18">
-        <v>192</v>
-      </c>
-      <c r="V18">
-        <v>185</v>
-      </c>
-      <c r="W18">
-        <v>195</v>
-      </c>
-      <c r="X18">
-        <v>255</v>
-      </c>
-      <c r="Y18">
-        <v>344</v>
-      </c>
-      <c r="Z18">
-        <v>300</v>
-      </c>
-      <c r="AA18">
-        <v>522</v>
-      </c>
-      <c r="AB18">
-        <v>522</v>
-      </c>
-      <c r="AC18">
-        <v>300</v>
-      </c>
-      <c r="AD18">
-        <v>545</v>
-      </c>
-      <c r="AE18">
-        <v>545</v>
-      </c>
-      <c r="AF18">
-        <v>446</v>
-      </c>
-      <c r="AG18">
-        <v>379</v>
-      </c>
-      <c r="AH18">
-        <v>408</v>
-      </c>
-      <c r="AI18">
-        <v>254</v>
-      </c>
-      <c r="AJ18">
-        <v>171</v>
-      </c>
       <c r="AK18">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM18">
         <v>5</v>
@@ -5511,112 +5511,112 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="E19">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="F19">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="G19">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="H19">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="I19">
-        <v>800</v>
+        <v>766</v>
       </c>
       <c r="J19">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="K19">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="L19">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="M19">
-        <v>336</v>
+        <v>229</v>
       </c>
       <c r="N19">
-        <v>326</v>
+        <v>219</v>
       </c>
       <c r="O19">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="P19">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="Q19">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="R19">
-        <v>356</v>
+        <v>236</v>
       </c>
       <c r="S19">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="T19">
-        <v>314</v>
+        <v>205</v>
       </c>
       <c r="U19">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="V19">
-        <v>331</v>
+        <v>224</v>
       </c>
       <c r="W19">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="X19">
-        <v>385</v>
+        <v>260</v>
       </c>
       <c r="Y19">
-        <v>484</v>
+        <v>322</v>
       </c>
       <c r="Z19">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="AA19">
-        <v>829</v>
+        <v>793</v>
       </c>
       <c r="AB19">
-        <v>829</v>
+        <v>791</v>
       </c>
       <c r="AC19">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="AD19">
-        <v>865</v>
+        <v>828</v>
       </c>
       <c r="AE19">
-        <v>743</v>
+        <v>716</v>
       </c>
       <c r="AF19">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="AG19">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="AH19">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="AI19">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="AJ19">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AK19">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AL19">
         <v>8</v>
@@ -5630,112 +5630,112 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D20">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E20">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="F20">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="G20">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="H20">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="I20">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="J20">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="K20">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="L20">
-        <v>497</v>
+        <v>329</v>
       </c>
       <c r="M20">
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="N20">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="O20">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="P20">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="Q20">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="R20">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="S20">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="T20">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="U20">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="V20">
+        <v>107</v>
+      </c>
+      <c r="W20">
+        <v>131</v>
+      </c>
+      <c r="X20">
+        <v>156</v>
+      </c>
+      <c r="Y20">
+        <v>209</v>
+      </c>
+      <c r="Z20">
+        <v>295</v>
+      </c>
+      <c r="AA20">
+        <v>526</v>
+      </c>
+      <c r="AB20">
+        <v>522</v>
+      </c>
+      <c r="AC20">
+        <v>295</v>
+      </c>
+      <c r="AD20">
+        <v>547</v>
+      </c>
+      <c r="AE20">
+        <v>387</v>
+      </c>
+      <c r="AF20">
+        <v>342</v>
+      </c>
+      <c r="AG20">
+        <v>234</v>
+      </c>
+      <c r="AH20">
+        <v>302</v>
+      </c>
+      <c r="AI20">
         <v>158</v>
       </c>
-      <c r="W20">
-        <v>193</v>
-      </c>
-      <c r="X20">
-        <v>232</v>
-      </c>
-      <c r="Y20">
-        <v>311</v>
-      </c>
-      <c r="Z20">
-        <v>308</v>
-      </c>
-      <c r="AA20">
-        <v>537</v>
-      </c>
-      <c r="AB20">
-        <v>537</v>
-      </c>
-      <c r="AC20">
-        <v>308</v>
-      </c>
-      <c r="AD20">
-        <v>560</v>
-      </c>
-      <c r="AE20">
-        <v>397</v>
-      </c>
-      <c r="AF20">
-        <v>360</v>
-      </c>
-      <c r="AG20">
-        <v>246</v>
-      </c>
-      <c r="AH20">
-        <v>315</v>
-      </c>
-      <c r="AI20">
-        <v>164</v>
-      </c>
       <c r="AJ20">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL20">
         <v>7</v>
@@ -5749,112 +5749,112 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D21">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E21">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F21">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="G21">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H21">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="I21">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="J21">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="K21">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L21">
-        <v>491</v>
+        <v>330</v>
       </c>
       <c r="M21">
-        <v>331</v>
+        <v>229</v>
       </c>
       <c r="N21">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="O21">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="P21">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="Q21">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="R21">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="S21">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="T21">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="U21">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="V21">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="W21">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="X21">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="Y21">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="Z21">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AA21">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="AB21">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="AC21">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="AD21">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AE21">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AF21">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AG21">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AH21">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AI21">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AJ21">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AK21">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AL21">
         <v>8</v>
@@ -5868,109 +5868,109 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D22">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E22">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F22">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G22">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="H22">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="I22">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="J22">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="K22">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L22">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="M22">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="N22">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="O22">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="P22">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="Q22">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="R22">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="S22">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="T22">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="U22">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="V22">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="W22">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="X22">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="Y22">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="Z22">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AA22">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AB22">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="AC22">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="AD22">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE22">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AF22">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG22">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AH22">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AI22">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AJ22">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AK22">
         <v>23</v>
@@ -5987,109 +5987,109 @@
         <v>21</v>
       </c>
       <c r="B23">
+        <v>154</v>
+      </c>
+      <c r="C23">
+        <v>401</v>
+      </c>
+      <c r="D23">
+        <v>464</v>
+      </c>
+      <c r="E23">
+        <v>667</v>
+      </c>
+      <c r="F23">
+        <v>784</v>
+      </c>
+      <c r="G23">
+        <v>846</v>
+      </c>
+      <c r="H23">
+        <v>846</v>
+      </c>
+      <c r="I23">
+        <v>797</v>
+      </c>
+      <c r="J23">
+        <v>660</v>
+      </c>
+      <c r="K23">
+        <v>473</v>
+      </c>
+      <c r="L23">
+        <v>590</v>
+      </c>
+      <c r="M23">
+        <v>538</v>
+      </c>
+      <c r="N23">
+        <v>444</v>
+      </c>
+      <c r="O23">
+        <v>392</v>
+      </c>
+      <c r="P23">
+        <v>491</v>
+      </c>
+      <c r="Q23">
+        <v>453</v>
+      </c>
+      <c r="R23">
+        <v>352</v>
+      </c>
+      <c r="S23">
+        <v>328</v>
+      </c>
+      <c r="T23">
+        <v>293</v>
+      </c>
+      <c r="U23">
+        <v>272</v>
+      </c>
+      <c r="V23">
+        <v>231</v>
+      </c>
+      <c r="W23">
+        <v>244</v>
+      </c>
+      <c r="X23">
+        <v>226</v>
+      </c>
+      <c r="Y23">
+        <v>255</v>
+      </c>
+      <c r="Z23">
+        <v>461</v>
+      </c>
+      <c r="AA23">
+        <v>813</v>
+      </c>
+      <c r="AB23">
+        <v>810</v>
+      </c>
+      <c r="AC23">
+        <v>473</v>
+      </c>
+      <c r="AD23">
+        <v>221</v>
+      </c>
+      <c r="AE23">
+        <v>180</v>
+      </c>
+      <c r="AF23">
         <v>159</v>
       </c>
-      <c r="C23">
-        <v>418</v>
-      </c>
-      <c r="D23">
-        <v>484</v>
-      </c>
-      <c r="E23">
-        <v>682</v>
-      </c>
-      <c r="F23">
-        <v>814</v>
-      </c>
-      <c r="G23">
-        <v>879</v>
-      </c>
-      <c r="H23">
-        <v>879</v>
-      </c>
-      <c r="I23">
-        <v>814</v>
-      </c>
-      <c r="J23">
-        <v>682</v>
-      </c>
-      <c r="K23">
-        <v>484</v>
-      </c>
-      <c r="L23">
-        <v>879</v>
-      </c>
-      <c r="M23">
-        <v>794</v>
-      </c>
-      <c r="N23">
-        <v>673</v>
-      </c>
-      <c r="O23">
-        <v>580</v>
-      </c>
-      <c r="P23">
-        <v>731</v>
-      </c>
-      <c r="Q23">
-        <v>681</v>
-      </c>
-      <c r="R23">
-        <v>530</v>
-      </c>
-      <c r="S23">
-        <v>482</v>
-      </c>
-      <c r="T23">
-        <v>439</v>
-      </c>
-      <c r="U23">
-        <v>401</v>
-      </c>
-      <c r="V23">
-        <v>339</v>
-      </c>
-      <c r="W23">
-        <v>357</v>
-      </c>
-      <c r="X23">
-        <v>334</v>
-      </c>
-      <c r="Y23">
-        <v>384</v>
-      </c>
-      <c r="Z23">
-        <v>484</v>
-      </c>
-      <c r="AA23">
-        <v>843</v>
-      </c>
-      <c r="AB23">
-        <v>843</v>
-      </c>
-      <c r="AC23">
-        <v>484</v>
-      </c>
-      <c r="AD23">
-        <v>226</v>
-      </c>
-      <c r="AE23">
-        <v>184</v>
-      </c>
-      <c r="AF23">
-        <v>165</v>
-      </c>
       <c r="AG23">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AH23">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AI23">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ23">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK23">
         <v>23</v>
@@ -6106,112 +6106,112 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C24">
-        <v>816</v>
+        <v>784</v>
       </c>
       <c r="D24">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="E24">
-        <v>832</v>
+        <v>798</v>
       </c>
       <c r="F24">
-        <v>993</v>
+        <v>966</v>
       </c>
       <c r="G24">
-        <v>1074</v>
+        <v>1025</v>
       </c>
       <c r="H24">
-        <v>1074</v>
+        <v>1027</v>
       </c>
       <c r="I24">
-        <v>993</v>
+        <v>973</v>
       </c>
       <c r="J24">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="K24">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="L24">
-        <v>1074</v>
+        <v>731</v>
       </c>
       <c r="M24">
-        <v>1064</v>
+        <v>721</v>
       </c>
       <c r="N24">
-        <v>883</v>
+        <v>584</v>
       </c>
       <c r="O24">
-        <v>780</v>
+        <v>523</v>
       </c>
       <c r="P24">
-        <v>800</v>
+        <v>539</v>
       </c>
       <c r="Q24">
-        <v>776</v>
+        <v>526</v>
       </c>
       <c r="R24">
-        <v>641</v>
+        <v>433</v>
       </c>
       <c r="S24">
-        <v>560</v>
+        <v>386</v>
       </c>
       <c r="T24">
-        <v>471</v>
+        <v>314</v>
       </c>
       <c r="U24">
-        <v>478</v>
+        <v>327</v>
       </c>
       <c r="V24">
-        <v>394</v>
+        <v>268</v>
       </c>
       <c r="W24">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="X24">
-        <v>391</v>
+        <v>262</v>
       </c>
       <c r="Y24">
-        <v>565</v>
+        <v>373</v>
       </c>
       <c r="Z24">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="AA24">
-        <v>1029</v>
+        <v>988</v>
       </c>
       <c r="AB24">
-        <v>1029</v>
+        <v>986</v>
       </c>
       <c r="AC24">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="AD24">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AE24">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AF24">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="AG24">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH24">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AI24">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ24">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL24">
         <v>0</v>
